--- a/cityLife4/App_Data/cityLifeDB production addition 02.xlsx
+++ b/cityLife4/App_Data/cityLifeDB production addition 02.xlsx
@@ -11,11 +11,12 @@
     <sheet name="cityLifeDB production fetures" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
   <si>
     <t>mode</t>
   </si>
@@ -401,16 +402,7 @@
     <t>27 sq.m.;Wi-Fi;TV;Air Condition;Refrigirator;Washing Machine;Jacuzzi;Fireplace;Double bed + Sofa;Electric Stove;Boiler;Hair Dryer;Dishes;Mini-Parfumery;Slippers;Iron;Microwave;Kettle;Mini-Bar;24X7 Service</t>
   </si>
   <si>
-    <t>Poltavskyi Shliakh Street, 28/20</t>
-  </si>
-  <si>
     <t>25 sq.m.;Wi-Fi;TV;Air Condition;Refrigirator;Washing Machine;Shower Stall;Double bed + Sofa;Electric Stove;Boiler;Hair Dryer;Dishes;Mini-Parfumery;Slippers;Iron;Microwave;Kettle;Mini-Bar;24X7 Service</t>
-  </si>
-  <si>
-    <t>Poltavskyi Shliakh Street, 28/21</t>
-  </si>
-  <si>
-    <t>Poltavskyi Shliakh Street, 28/22</t>
   </si>
   <si>
     <t>23 sq.m.;Wi-Fi;TV;Air Condition;Refrigirator;Washing Machine;Shower;Convertible Sofa;Electric Stove;Boiler;Hair Dryer;Dishes;Mini-Parfumery;Slippers;Iron;Microwave;Kettle;Mini-Bar;24X7 Service</t>
@@ -1251,12 +1243,13 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" customWidth="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1"/>
   </cols>
@@ -1338,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1352,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
@@ -1361,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>88</v>
@@ -1384,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,7 +1391,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
@@ -1407,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1421,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
